--- a/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
+++ b/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Documents\Test\test view point\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -275,10 +280,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$60</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$23</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$44</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$62</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$25</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$46</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$71</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -313,7 +318,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$20</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -482,7 +487,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1052,6 +1057,30 @@
 - Title is centered, color is blue
 - All items is left-aligned
 - Text's color is black</t>
+  </si>
+  <si>
+    <t>1.2.2.3</t>
+  </si>
+  <si>
+    <t>Audio bar</t>
+  </si>
+  <si>
+    <t>Click on Audio bar</t>
+  </si>
+  <si>
+    <t>Sound is played</t>
+  </si>
+  <si>
+    <t>1.2.2.4</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Click to adjust volume</t>
+  </si>
+  <si>
+    <t>Volume is adjusted</t>
   </si>
 </sst>
 </file>
@@ -3048,6 +3077,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3065,27 +3115,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6035,7 +6064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6070,7 +6099,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6301,14 +6330,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6323,12 +6352,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6340,12 +6369,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6354,15 +6383,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6371,11 +6400,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6398,10 +6427,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6419,10 +6448,10 @@
       <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6436,8 +6465,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6445,8 +6474,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6454,8 +6483,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6463,8 +6492,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6472,8 +6501,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6481,8 +6510,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6490,12 +6519,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6503,6 +6526,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6516,10 +6545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6891,7 +6920,7 @@
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6903,41 +6932,69 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="L17" s="56" t="s">
+      <c r="L19" s="56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="44" customFormat="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="72"/>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="72"/>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+    <row r="20" spans="1:12" s="44" customFormat="1">
       <c r="A20" s="64"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
@@ -6949,9 +7006,9 @@
       <c r="I20" s="67"/>
       <c r="J20" s="68"/>
       <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="L20" s="72"/>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1">
       <c r="A21" s="64"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -6965,7 +7022,7 @@
       <c r="K21" s="66"/>
       <c r="L21" s="72"/>
     </row>
-    <row r="22" spans="1:12" s="44" customFormat="1">
+    <row r="22" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A22" s="64"/>
       <c r="B22" s="65"/>
       <c r="C22" s="65"/>
@@ -6977,21 +7034,21 @@
       <c r="I22" s="67"/>
       <c r="J22" s="68"/>
       <c r="K22" s="66"/>
-      <c r="L22" s="72"/>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
+      <c r="L22" s="66"/>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1">
       <c r="A24" s="64"/>
@@ -7005,25 +7062,25 @@
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
       <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
+      <c r="L24" s="72"/>
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="72"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1">
       <c r="A26" s="64"/>
-      <c r="B26" s="73"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="66"/>
@@ -7033,16 +7090,16 @@
       <c r="I26" s="67"/>
       <c r="J26" s="68"/>
       <c r="K26" s="66"/>
-      <c r="L26" s="72"/>
-    </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="L26" s="66"/>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1">
       <c r="A27" s="64"/>
-      <c r="B27" s="73"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="65"/>
       <c r="I27" s="67"/>
       <c r="J27" s="68"/>
@@ -7051,7 +7108,7 @@
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1">
       <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="65"/>
       <c r="D28" s="65"/>
       <c r="E28" s="66"/>
@@ -7061,21 +7118,21 @@
       <c r="I28" s="67"/>
       <c r="J28" s="68"/>
       <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-    </row>
-    <row r="29" spans="1:12" s="44" customFormat="1">
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="65"/>
       <c r="D29" s="65"/>
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
-      <c r="G29" s="71"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="65"/>
       <c r="I29" s="67"/>
       <c r="J29" s="68"/>
       <c r="K29" s="66"/>
-      <c r="L29" s="74"/>
+      <c r="L29" s="72"/>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1">
       <c r="A30" s="64"/>
@@ -7084,12 +7141,12 @@
       <c r="D30" s="65"/>
       <c r="E30" s="66"/>
       <c r="F30" s="66"/>
-      <c r="G30" s="75"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="65"/>
       <c r="I30" s="67"/>
       <c r="J30" s="68"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1">
       <c r="A31" s="64"/>
@@ -7102,8 +7159,8 @@
       <c r="H31" s="65"/>
       <c r="I31" s="67"/>
       <c r="J31" s="68"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="74"/>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1">
       <c r="A32" s="64"/>
@@ -7112,7 +7169,7 @@
       <c r="D32" s="65"/>
       <c r="E32" s="66"/>
       <c r="F32" s="66"/>
-      <c r="G32" s="71"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="65"/>
       <c r="I32" s="67"/>
       <c r="J32" s="68"/>
@@ -7133,7 +7190,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="72"/>
     </row>
-    <row r="34" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="34" spans="1:12" s="44" customFormat="1">
       <c r="A34" s="64"/>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
@@ -7161,7 +7218,7 @@
       <c r="K35" s="72"/>
       <c r="L35" s="72"/>
     </row>
-    <row r="36" spans="1:12" s="44" customFormat="1">
+    <row r="36" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A36" s="64"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
@@ -7274,18 +7331,18 @@
       <c r="L43" s="72"/>
     </row>
     <row r="44" spans="1:12" s="44" customFormat="1">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1">
       <c r="A45" s="64"/>
@@ -7298,26 +7355,26 @@
       <c r="H45" s="65"/>
       <c r="I45" s="67"/>
       <c r="J45" s="68"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
     </row>
     <row r="46" spans="1:12" s="44" customFormat="1">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="72"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
     </row>
     <row r="47" spans="1:12" s="44" customFormat="1">
       <c r="A47" s="64"/>
-      <c r="B47" s="73"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="65"/>
       <c r="D47" s="65"/>
       <c r="E47" s="66"/>
@@ -7327,16 +7384,16 @@
       <c r="I47" s="67"/>
       <c r="J47" s="68"/>
       <c r="K47" s="66"/>
-      <c r="L47" s="72"/>
+      <c r="L47" s="66"/>
     </row>
     <row r="48" spans="1:12" s="44" customFormat="1">
       <c r="A48" s="64"/>
-      <c r="B48" s="73"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="65"/>
       <c r="D48" s="65"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
+      <c r="G48" s="71"/>
       <c r="H48" s="65"/>
       <c r="I48" s="67"/>
       <c r="J48" s="68"/>
@@ -7350,7 +7407,7 @@
       <c r="D49" s="65"/>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="65"/>
       <c r="I49" s="67"/>
       <c r="J49" s="68"/>
@@ -7443,8 +7500,8 @@
     </row>
     <row r="56" spans="1:12" s="44" customFormat="1">
       <c r="A56" s="64"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
@@ -7453,28 +7510,28 @@
       <c r="I56" s="67"/>
       <c r="J56" s="68"/>
       <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
+      <c r="L56" s="72"/>
     </row>
     <row r="57" spans="1:12" s="44" customFormat="1">
       <c r="A57" s="64"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="65"/>
-      <c r="E57" s="71"/>
+      <c r="E57" s="66"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
       <c r="H57" s="65"/>
       <c r="I57" s="67"/>
       <c r="J57" s="68"/>
       <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
+      <c r="L57" s="72"/>
     </row>
     <row r="58" spans="1:12" s="44" customFormat="1">
       <c r="A58" s="64"/>
-      <c r="B58" s="73"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="73"/>
       <c r="D58" s="65"/>
-      <c r="E58" s="71"/>
+      <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
       <c r="H58" s="65"/>
@@ -7486,25 +7543,25 @@
     <row r="59" spans="1:12" s="44" customFormat="1">
       <c r="A59" s="64"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="65"/>
+      <c r="C59" s="73"/>
       <c r="D59" s="65"/>
       <c r="E59" s="71"/>
       <c r="F59" s="66"/>
-      <c r="G59" s="71"/>
+      <c r="G59" s="66"/>
       <c r="H59" s="65"/>
       <c r="I59" s="67"/>
       <c r="J59" s="68"/>
-      <c r="K59" s="72"/>
+      <c r="K59" s="66"/>
       <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" s="44" customFormat="1">
       <c r="A60" s="64"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="65"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="65"/>
       <c r="E60" s="71"/>
       <c r="F60" s="66"/>
-      <c r="G60" s="71"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="65"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
@@ -7513,25 +7570,25 @@
     </row>
     <row r="61" spans="1:12" s="44" customFormat="1">
       <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="65"/>
       <c r="D61" s="65"/>
       <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="71"/>
       <c r="H61" s="65"/>
       <c r="I61" s="67"/>
       <c r="J61" s="68"/>
-      <c r="K61" s="66"/>
+      <c r="K61" s="72"/>
       <c r="L61" s="66"/>
     </row>
     <row r="62" spans="1:12" s="44" customFormat="1">
       <c r="A62" s="64"/>
-      <c r="B62" s="65"/>
+      <c r="B62" s="73"/>
       <c r="C62" s="65"/>
       <c r="D62" s="65"/>
       <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
+      <c r="F62" s="66"/>
       <c r="G62" s="71"/>
       <c r="H62" s="65"/>
       <c r="I62" s="67"/>
@@ -7540,46 +7597,46 @@
       <c r="L62" s="66"/>
     </row>
     <row r="63" spans="1:12" s="44" customFormat="1">
-      <c r="A63" s="69"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
-      <c r="L63" s="69"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
     </row>
     <row r="64" spans="1:12" s="44" customFormat="1">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="68"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="65"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="76"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
       <c r="H64" s="65"/>
       <c r="I64" s="67"/>
       <c r="J64" s="68"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="76"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
     </row>
     <row r="65" spans="1:13" s="44" customFormat="1">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="76"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="69"/>
     </row>
     <row r="66" spans="1:13" s="44" customFormat="1">
       <c r="A66" s="38"/>
@@ -7587,12 +7644,12 @@
       <c r="C66" s="68"/>
       <c r="D66" s="65"/>
       <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
+      <c r="F66" s="66"/>
       <c r="G66" s="76"/>
       <c r="H66" s="65"/>
       <c r="I66" s="67"/>
       <c r="J66" s="68"/>
-      <c r="K66" s="77"/>
+      <c r="K66" s="76"/>
       <c r="L66" s="76"/>
     </row>
     <row r="67" spans="1:13" s="44" customFormat="1">
@@ -7601,7 +7658,7 @@
       <c r="C67" s="68"/>
       <c r="D67" s="65"/>
       <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="76"/>
       <c r="H67" s="65"/>
       <c r="I67" s="67"/>
@@ -7624,18 +7681,18 @@
       <c r="L68" s="76"/>
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
-      <c r="A69" s="69"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="69"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="76"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
       <c r="A70" s="38"/>
@@ -7643,46 +7700,44 @@
       <c r="C70" s="68"/>
       <c r="D70" s="65"/>
       <c r="E70" s="76"/>
-      <c r="F70" s="66"/>
+      <c r="F70" s="76"/>
       <c r="G70" s="76"/>
       <c r="H70" s="65"/>
       <c r="I70" s="67"/>
       <c r="J70" s="68"/>
       <c r="K70" s="77"/>
       <c r="L70" s="76"/>
-      <c r="M70" s="37"/>
     </row>
     <row r="71" spans="1:13" s="44" customFormat="1">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="37"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
-      <c r="K72" s="70"/>
-      <c r="L72" s="69"/>
-      <c r="M72" s="44"/>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="69"/>
+    </row>
+    <row r="72" spans="1:13" s="44" customFormat="1">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="37"/>
+    </row>
+    <row r="73" spans="1:13" s="44" customFormat="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="68"/>
@@ -7695,107 +7750,108 @@
       <c r="J73" s="68"/>
       <c r="K73" s="77"/>
       <c r="L73" s="76"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="76"/>
-      <c r="M74" s="37"/>
+      <c r="M73" s="37"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="44"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="69"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="69"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="64"/>
-      <c r="B76" s="73"/>
-      <c r="C76" s="65"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="76"/>
+    </row>
+    <row r="76" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="65"/>
-      <c r="E76" s="66"/>
+      <c r="E76" s="76"/>
       <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
+      <c r="G76" s="76"/>
       <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="78"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="77"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="37"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="64"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="69"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="44"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="78"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-    </row>
-    <row r="80" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="37"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="68"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="66"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="44"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="38"/>
@@ -7810,9 +7866,8 @@
       <c r="J81" s="38"/>
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
-      <c r="M81" s="44"/>
-    </row>
-    <row r="82" spans="1:13">
+    </row>
+    <row r="82" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -7825,8 +7880,9 @@
       <c r="J82" s="38"/>
       <c r="K82" s="38"/>
       <c r="L82" s="38"/>
-    </row>
-    <row r="83" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M82" s="37"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -7839,7 +7895,7 @@
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" s="38"/>
-      <c r="M83" s="37"/>
+      <c r="M83" s="44"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="38"/>
@@ -7854,9 +7910,8 @@
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
       <c r="L84" s="38"/>
-      <c r="M84" s="44"/>
-    </row>
-    <row r="85" spans="1:13">
+    </row>
+    <row r="85" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -7869,9 +7924,9 @@
       <c r="J85" s="38"/>
       <c r="K85" s="38"/>
       <c r="L85" s="38"/>
-      <c r="M85" s="44"/>
-    </row>
-    <row r="86" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M85" s="37"/>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
@@ -7884,9 +7939,9 @@
       <c r="J86" s="38"/>
       <c r="K86" s="38"/>
       <c r="L86" s="38"/>
-      <c r="M86" s="37"/>
-    </row>
-    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M86" s="44"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -7899,9 +7954,9 @@
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
-      <c r="M87" s="37"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="M87" s="44"/>
+    </row>
+    <row r="88" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -7914,44 +7969,74 @@
       <c r="J88" s="38"/>
       <c r="K88" s="38"/>
       <c r="L88" s="38"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="64"/>
-      <c r="B89" s="73"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="68"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="66"/>
+      <c r="M88" s="37"/>
+    </row>
+    <row r="89" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="37"/>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="64"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="66"/>
-    </row>
-    <row r="95" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="96" spans="1:13" ht="37.5" customHeight="1"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="64"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="64"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="66"/>
+    </row>
     <row r="97" ht="37.5" customHeight="1"/>
     <row r="98" ht="37.5" customHeight="1"/>
-    <row r="100" ht="18" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="105" ht="30" customHeight="1"/>
-    <row r="109" ht="44.25" customHeight="1"/>
-    <row r="110" ht="45" customHeight="1"/>
+    <row r="99" ht="37.5" customHeight="1"/>
+    <row r="100" ht="37.5" customHeight="1"/>
+    <row r="102" ht="18" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="107" ht="30" customHeight="1"/>
+    <row r="111" ht="44.25" customHeight="1"/>
+    <row r="112" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -7969,19 +8054,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I75 I44 I72 I69 I63 I78">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I77 I46 I74 I71 I65 I80">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J75 J44 J72 J69 J63 J78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J77 J46 J74 J71 J65 J80">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H89:H90 H24:H75 H77:H78 H8:H11 H14:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H91:H92 H26:H77 H79:H80 H8:H11 H14:H24">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I89:I90 I24:I43 I45:I62 I73:I74 I70:I71 I64:I68 I77 I8:I11 I14:I22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I91:I92 I26:I45 I47:I64 I75:I76 I72:I73 I66:I70 I79 I8:I11 I14:I24">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J64:J68 J70:J71 J77 J73:J74 J45:J62 J24:J43 J89:J90 J8:J11 J14:J22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J66:J70 J72:J73 J79 J75:J76 J47:J64 J26:J45 J91:J92 J8:J11 J14:J24">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7995,7 +8080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
